--- a/Calculs/PH3/DataBase_PH3_FileB_MidStrip_V6_results.xlsx
+++ b/Calculs/PH3/DataBase_PH3_FileB_MidStrip_V6_results.xlsx
@@ -762,7 +762,9 @@
       <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
@@ -905,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000288</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
         <v>56.256</v>
@@ -919,76 +921,78 @@
       <c r="W3" t="n">
         <v>17.088</v>
       </c>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.088</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="n">
-        <v>17.088</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>101.5776</v>
+        <v>88.2</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>73.34399999999999</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="n">
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.088</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.808329665532201</v>
+        <v>6.576184690563713</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.885843708130375</v>
+        <v>2.494384644719975</v>
       </c>
       <c r="AK3" t="n">
-        <v>-580.6479624266319</v>
+        <v>-433.5042381598149</v>
       </c>
       <c r="AL3" t="n">
-        <v>-92.4698133469726</v>
+        <v>-132.0936762595483</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-125.2855927210598</v>
+        <v>-178.6851020742928</v>
       </c>
       <c r="AO3" t="n">
-        <v>101.5776</v>
+        <v>88.2</v>
       </c>
       <c r="AP3" t="n">
         <v>45.92194782608675</v>
       </c>
       <c r="AQ3" t="n">
-        <v>163.2243164167763</v>
+        <v>128.3276871585634</v>
       </c>
       <c r="AR3" t="n">
-        <v>8.237155388849077</v>
+        <v>8.007490060207674</v>
       </c>
       <c r="AS3" t="n">
-        <v>-435.6779613914917</v>
+        <v>-435.9103391215049</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-928.8358936572391</v>
+        <v>-1012.680953566238</v>
       </c>
       <c r="AV3" t="n">
-        <v>73.34399999999999</v>
+        <v>63</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1068,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0.6446000000000001</v>
@@ -1076,46 +1080,48 @@
       <c r="W4" t="n">
         <v>0.1958</v>
       </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
       <c r="Y4" t="n">
-        <v>0.6446000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1958</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6446000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1958</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.16391</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>0.8404</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6446000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1958</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.08379293160444538</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.02531474322512556</v>
+        <v>0.7800012682519295</v>
       </c>
       <c r="AK4" t="n">
-        <v>-3.714926624659403</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-1.120678671796595</v>
+        <v>-34.58149873054777</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.16391</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>82.50344403855161</v>
@@ -1133,10 +1139,10 @@
         <v>82.50344403855161</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1137911946555751</v>
+        <v>0.8736489081488904</v>
       </c>
       <c r="AS4" t="n">
-        <v>-6.812623515309228</v>
+        <v>-52.69548430071461</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
@@ -1145,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.8404</v>
+        <v>6</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.08218667891006042</v>
+        <v>0.5840340372504842</v>
       </c>
       <c r="AX4" t="n">
-        <v>-4.918962785676903</v>
+        <v>-35.12610412009862</v>
       </c>
       <c r="AY4" t="n">
         <v>82.50344403855161</v>
@@ -1225,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>29.25312</v>
@@ -1233,46 +1239,48 @@
       <c r="W5" t="n">
         <v>8.885759999999999</v>
       </c>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
       <c r="Y5" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.885759999999999</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.885759999999999</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>52.820352</v>
+        <v>64.2</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>38.13888</v>
+        <v>45</v>
       </c>
       <c r="AG5" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.885759999999999</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.448228708496333</v>
+        <v>1.841205760904164</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.7436582904985842</v>
+        <v>1.924897593672596</v>
       </c>
       <c r="AK5" t="n">
-        <v>-77.43036932982398</v>
+        <v>-58.23201907424249</v>
       </c>
       <c r="AL5" t="n">
-        <v>-23.51981524288955</v>
+        <v>-60.87892486633737</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1281,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>52.820352</v>
+        <v>64.2</v>
       </c>
       <c r="AP5" t="n">
         <v>176.642758331491</v>
@@ -1290,10 +1298,10 @@
         <v>176.642758331491</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.280592593206936</v>
+        <v>3.958207662678463</v>
       </c>
       <c r="AS5" t="n">
-        <v>-142.8817504947391</v>
+        <v>-173.7458998796</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1302,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>38.13888</v>
+        <v>45</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.390704823290352</v>
+        <v>2.808744959286654</v>
       </c>
       <c r="AX5" t="n">
-        <v>-103.1064273435679</v>
+        <v>-121.6886198021438</v>
       </c>
       <c r="AY5" t="n">
         <v>176.642758331491</v>
@@ -1382,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>30.2962</v>
@@ -1390,46 +1398,48 @@
       <c r="W6" t="n">
         <v>9.2026</v>
       </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
       <c r="Y6" t="n">
-        <v>30.2962</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.2026</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>30.2962</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.2026</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>54.70377</v>
+        <v>55.95</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>39.4988</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>30.2962</v>
+        <v>27</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.2026</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.938512403869004</v>
+        <v>3.510005707133678</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.196339945202532</v>
+        <v>1.690002747879175</v>
       </c>
       <c r="AK6" t="n">
-        <v>-174.6146669734036</v>
+        <v>-155.616744287465</v>
       </c>
       <c r="AL6" t="n">
-        <v>-53.03995003628982</v>
+        <v>-74.92658058285349</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1438,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>54.70377</v>
+        <v>55.95</v>
       </c>
       <c r="AP6" t="n">
         <v>82.50344403855161</v>
@@ -1447,10 +1457,10 @@
         <v>82.50344403855161</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.077207258844818</v>
+        <v>5.186063921731074</v>
       </c>
       <c r="AS6" t="n">
-        <v>-320.9146995115292</v>
+        <v>-328.2439561520733</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
@@ -1459,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>39.4988</v>
+        <v>40</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.723650282526429</v>
+        <v>3.769003690627093</v>
       </c>
       <c r="AX6" t="n">
-        <v>-231.5612822523887</v>
+        <v>-234.5046347582509</v>
       </c>
       <c r="AY6" t="n">
         <v>82.50344403855161</v>
@@ -1539,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>78.75839999999999</v>
@@ -1547,46 +1557,48 @@
       <c r="W7" t="n">
         <v>23.9232</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
       <c r="Y7" t="n">
-        <v>78.75839999999999</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.9232</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.75839999999999</v>
+        <v>60</v>
       </c>
       <c r="AC7" t="n">
-        <v>23.9232</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="n">
-        <v>142.20864</v>
+        <v>130.5</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>102.6816</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="n">
-        <v>78.75839999999999</v>
+        <v>60</v>
       </c>
       <c r="AH7" t="n">
-        <v>23.9232</v>
+        <v>33</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.992168167648368</v>
+        <v>4.564974530448845</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.820145344702136</v>
+        <v>2.510735991746864</v>
       </c>
       <c r="AK7" t="n">
-        <v>-189.5148899681006</v>
+        <v>-144.3768969162151</v>
       </c>
       <c r="AL7" t="n">
-        <v>-57.56596452179722</v>
+        <v>-79.40729330391829</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -1595,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>142.20864</v>
+        <v>130.5</v>
       </c>
       <c r="AP7" t="n">
         <v>194.3070341646405</v>
@@ -1604,10 +1616,10 @@
         <v>194.3070341646405</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.615501298909694</v>
+        <v>7.044062267582683</v>
       </c>
       <c r="AS7" t="n">
-        <v>-350.882729929438</v>
+        <v>-321.8338908864919</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -1616,13 +1628,13 @@
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>102.6816</v>
+        <v>93</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.643485759579763</v>
+        <v>5.14239250817784</v>
       </c>
       <c r="AX7" t="n">
-        <v>-252.9418596122153</v>
+        <v>-229.0048424471757</v>
       </c>
       <c r="AY7" t="n">
         <v>194.3070341646405</v>
@@ -1696,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>50.9234</v>
@@ -1704,46 +1716,48 @@
       <c r="W8" t="n">
         <v>15.4682</v>
       </c>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
       <c r="Y8" t="n">
-        <v>50.9234</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>50.9234</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>91.94889000000001</v>
+        <v>81.75</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>66.3916</v>
+        <v>59</v>
       </c>
       <c r="AG8" t="n">
-        <v>50.9234</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.260801002936584</v>
+        <v>5.532545845959733</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.901745014543875</v>
+        <v>1.721236485409692</v>
       </c>
       <c r="AK8" t="n">
-        <v>-293.0830282675033</v>
+        <v>-258.9916673285296</v>
       </c>
       <c r="AL8" t="n">
-        <v>-89.02522019047026</v>
+        <v>-80.57518539109809</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -1752,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>91.94889000000001</v>
+        <v>81.75</v>
       </c>
       <c r="AP8" t="n">
         <v>82.63256119540998</v>
@@ -1761,10 +1775,10 @@
         <v>82.63256119540998</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-461.2084789974363</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -1773,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>66.3916</v>
+        <v>59</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.781489645414107</v>
+        <v>5.177205944837499</v>
       </c>
       <c r="AX8" t="n">
-        <v>-388.6651867911656</v>
+        <v>-345.2793128740262</v>
       </c>
       <c r="AY8" t="n">
         <v>82.63256119540998</v>
@@ -1853,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>76.50816</v>
@@ -1861,46 +1875,48 @@
       <c r="W9" t="n">
         <v>23.23968</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
       <c r="Y9" t="n">
-        <v>76.50816</v>
+        <v>59</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>76.50816</v>
+        <v>59</v>
       </c>
       <c r="AC9" t="n">
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="AD9" t="n">
-        <v>138.145536</v>
+        <v>127.65</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>99.74784</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="n">
-        <v>76.50816</v>
+        <v>59</v>
       </c>
       <c r="AH9" t="n">
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.820963362858417</v>
+        <v>4.488891621608031</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.768141298602941</v>
+        <v>2.434653082906053</v>
       </c>
       <c r="AK9" t="n">
-        <v>-184.1001788261549</v>
+        <v>-141.9706153009449</v>
       </c>
       <c r="AL9" t="n">
-        <v>-55.92122200728053</v>
+        <v>-77.00101168864805</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -1909,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>138.145536</v>
+        <v>127.65</v>
       </c>
       <c r="AP9" t="n">
         <v>194.3070341646405</v>
@@ -1918,10 +1934,10 @@
         <v>194.3070341646405</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.418447535114042</v>
+        <v>6.903318269738143</v>
       </c>
       <c r="AS9" t="n">
-        <v>-340.7986309840572</v>
+        <v>-314.7679281308485</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -1930,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>99.74784</v>
+        <v>91</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.492370232479453</v>
+        <v>5.038024185182141</v>
       </c>
       <c r="AX9" t="n">
-        <v>-245.6862722809332</v>
+        <v>-224.0624427216106</v>
       </c>
       <c r="AY9" t="n">
         <v>194.3070341646405</v>
@@ -2010,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>33.5192</v>
@@ -2018,46 +2034,48 @@
       <c r="W10" t="n">
         <v>10.1816</v>
       </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
       <c r="Y10" t="n">
-        <v>33.5192</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>33.5192</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>60.52332</v>
+        <v>59.7</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>43.7008</v>
+        <v>43</v>
       </c>
       <c r="AG10" t="n">
-        <v>33.5192</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.790578982613158</v>
+        <v>6.482807687642341</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.062667336015603</v>
+        <v>2.228465142627055</v>
       </c>
       <c r="AK10" t="n">
-        <v>-279.2756056682367</v>
+        <v>-266.617919920033</v>
       </c>
       <c r="AL10" t="n">
-        <v>-84.8311566705565</v>
+        <v>-91.64990997251135</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -2066,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>60.52332</v>
+        <v>59.7</v>
       </c>
       <c r="AP10" t="n">
         <v>57.15845349143528</v>
@@ -2087,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>43.7008</v>
+        <v>43</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.265799370585882</v>
+        <v>6.173086244109707</v>
       </c>
       <c r="AX10" t="n">
-        <v>-370.9959263768775</v>
+        <v>-365.021777094571</v>
       </c>
       <c r="AY10" t="n">
         <v>57.15845349143528</v>
@@ -2167,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>82.50880000000001</v>
@@ -2175,46 +2193,48 @@
       <c r="W11" t="n">
         <v>25.0624</v>
       </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
       <c r="Y11" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="AC11" t="n">
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="AD11" t="n">
-        <v>148.98048</v>
+        <v>135.9</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>107.5712</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="AH11" t="n">
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.524208367889168</v>
+        <v>4.284989425914651</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.678000710160334</v>
+        <v>2.209446677351186</v>
       </c>
       <c r="AK11" t="n">
-        <v>-174.714679513449</v>
+        <v>-135.5217805720206</v>
       </c>
       <c r="AL11" t="n">
-        <v>-53.07033650457691</v>
+        <v>-69.87842437292116</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -2223,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>148.98048</v>
+        <v>135.9</v>
       </c>
       <c r="AP11" t="n">
         <v>220.8034479143638</v>
@@ -2232,10 +2252,10 @@
         <v>220.8034479143638</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.073749912451947</v>
+        <v>6.501948816337412</v>
       </c>
       <c r="AS11" t="n">
-        <v>-323.3286985438441</v>
+        <v>-294.7998343658825</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -2244,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>107.5712</v>
+        <v>97</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.228935530485912</v>
+        <v>4.742149801114439</v>
       </c>
       <c r="AX11" t="n">
-        <v>-233.114231338805</v>
+        <v>-210.1293236133968</v>
       </c>
       <c r="AY11" t="n">
         <v>220.8034479143638</v>
@@ -2328,13 +2348,11 @@
       <c r="W12" t="n">
         <v>0</v>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2471,13 +2489,13 @@
         <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0.000192</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>42.75456000000001</v>
@@ -2485,76 +2503,78 @@
       <c r="W13" t="n">
         <v>12.98688</v>
       </c>
-      <c r="X13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
       <c r="Y13" t="n">
-        <v>42.75456000000001</v>
+        <v>33</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.98688</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>42.75456000000001</v>
+        <v>33</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.98688</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>77.19897600000002</v>
+        <v>64.05000000000001</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>55.74144</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="n">
-        <v>42.75456000000001</v>
+        <v>33</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.98688</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.682333130346619</v>
+        <v>7.473284564300003</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.283124957483152</v>
+        <v>2.407581321402691</v>
       </c>
       <c r="AK13" t="n">
-        <v>-444.888700410148</v>
+        <v>-343.3862285925732</v>
       </c>
       <c r="AL13" t="n">
-        <v>-84.16785476515902</v>
+        <v>-92.6852506727237</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-114.849774894517</v>
+        <v>-126.3192227355453</v>
       </c>
       <c r="AO13" t="n">
-        <v>77.19897600000002</v>
+        <v>64.05000000000001</v>
       </c>
       <c r="AP13" t="n">
         <v>45.72275978720826</v>
       </c>
       <c r="AQ13" t="n">
-        <v>121.3775344990069</v>
+        <v>102.4755546109214</v>
       </c>
       <c r="AR13" t="n">
-        <v>9.83678958711379</v>
+        <v>8.503903573874453</v>
       </c>
       <c r="AS13" t="n">
-        <v>-435.4522046441028</v>
+        <v>-435.0978924204566</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-852.946451558938</v>
+        <v>-718.394773829725</v>
       </c>
       <c r="AV13" t="n">
-        <v>55.74144</v>
+        <v>46</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -2634,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>30.2962</v>
@@ -2642,46 +2662,48 @@
       <c r="W14" t="n">
         <v>9.2026</v>
       </c>
-      <c r="X14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y14" t="n">
-        <v>30.2962</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.2026</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>30.2962</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.2026</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>54.70377</v>
+        <v>47.7</v>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>39.4988</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>30.2962</v>
+        <v>22</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.2026</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>5.788716028670034</v>
+        <v>4.203555318183161</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.758347189596017</v>
+        <v>2.292848355372635</v>
       </c>
       <c r="AK14" t="n">
-        <v>-177.5783601425211</v>
+        <v>-128.9509550087293</v>
       </c>
       <c r="AL14" t="n">
-        <v>-53.94018448015149</v>
+        <v>-70.336884550216</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -2690,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>54.70377</v>
+        <v>47.7</v>
       </c>
       <c r="AP14" t="n">
         <v>79.46830817989363</v>
@@ -2699,10 +2721,10 @@
         <v>79.46830817989363</v>
       </c>
       <c r="AR14" t="n">
-        <v>7.416857359694368</v>
+        <v>6.543848438445062</v>
       </c>
       <c r="AS14" t="n">
-        <v>-328.6520343841275</v>
+        <v>-286.3524005707292</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -2711,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>39.4988</v>
+        <v>34</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.488838600550733</v>
+        <v>4.764197912916774</v>
       </c>
       <c r="AX14" t="n">
-        <v>-236.9408532551439</v>
+        <v>-203.8554285067717</v>
       </c>
       <c r="AY14" t="n">
         <v>79.46830817989363</v>
@@ -2791,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0.75008</v>
@@ -2799,46 +2821,48 @@
       <c r="W15" t="n">
         <v>0.22784</v>
       </c>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
       <c r="Y15" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.22784</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.22784</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.354368</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
-        <v>0.9779199999999999</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.75008</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.22784</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1254374744100759</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.03802242358334621</v>
+        <v>1.672332283768398</v>
       </c>
       <c r="AK15" t="n">
-        <v>-3.963320183103872</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-1.201298844484357</v>
+        <v>-52.83858396998651</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -2847,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.354368</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>88.4793617171849</v>
@@ -2856,10 +2880,10 @@
         <v>88.4793617171849</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.1732988785727159</v>
+        <v>1.888461074227151</v>
       </c>
       <c r="AS15" t="n">
-        <v>-7.299163596688196</v>
+        <v>-80.92548398735647</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -2868,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.9779199999999999</v>
+        <v>10</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.1251842596840599</v>
+        <v>1.266593404247562</v>
       </c>
       <c r="AX15" t="n">
-        <v>-5.270210866152013</v>
+        <v>-53.9292634870042</v>
       </c>
       <c r="AY15" t="n">
         <v>88.4793617171849</v>
@@ -2948,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>36.7422</v>
@@ -2956,46 +2980,48 @@
       <c r="W16" t="n">
         <v>11.1606</v>
       </c>
-      <c r="X16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
       <c r="Y16" t="n">
-        <v>36.7422</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.1606</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>36.7422</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.1606</v>
+        <v>16</v>
       </c>
       <c r="AD16" t="n">
-        <v>66.34287</v>
+        <v>67.2</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>47.9028</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="n">
-        <v>36.7422</v>
+        <v>32</v>
       </c>
       <c r="AH16" t="n">
-        <v>11.1606</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.008833860714542</v>
+        <v>6.104225755204247</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.12896318636039</v>
+        <v>3.052112877602124</v>
       </c>
       <c r="AK16" t="n">
-        <v>-214.5288561844688</v>
+        <v>-186.8402925764653</v>
       </c>
       <c r="AL16" t="n">
-        <v>-65.16405529152807</v>
+        <v>-93.42014628823262</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -3004,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>66.34287</v>
+        <v>67.2</v>
       </c>
       <c r="AP16" t="n">
         <v>79.75790420253382</v>
@@ -3013,10 +3039,10 @@
         <v>79.75790420253382</v>
       </c>
       <c r="AR16" t="n">
-        <v>8.795788976061036</v>
+        <v>8.89523887836631</v>
       </c>
       <c r="AS16" t="n">
-        <v>-397.6430318198652</v>
+        <v>-402.8248248417515</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -3025,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>47.9028</v>
+        <v>48</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.560592251722035</v>
+        <v>6.572883249098376</v>
       </c>
       <c r="AX16" t="n">
-        <v>-286.4693882239317</v>
+        <v>-287.0532598008257</v>
       </c>
       <c r="AY16" t="n">
         <v>79.75790420253382</v>
@@ -3105,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>41.2544</v>
@@ -3113,46 +3139,48 @@
       <c r="W17" t="n">
         <v>12.5312</v>
       </c>
-      <c r="X17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
       <c r="Y17" t="n">
-        <v>41.2544</v>
+        <v>32</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.5312</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>41.2544</v>
+        <v>32</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5312</v>
+        <v>16</v>
       </c>
       <c r="AD17" t="n">
-        <v>74.49024000000001</v>
+        <v>67.2</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>53.7856</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="n">
-        <v>41.2544</v>
+        <v>32</v>
       </c>
       <c r="AH17" t="n">
-        <v>12.5312</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.808753526360096</v>
+        <v>6.057053619578102</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.371942197426787</v>
+        <v>3.028526809789054</v>
       </c>
       <c r="AK17" t="n">
-        <v>-289.0236542783442</v>
+        <v>-224.1883759527957</v>
       </c>
       <c r="AL17" t="n">
-        <v>-87.79216802311475</v>
+        <v>-112.0941879763978</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -3161,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>74.49024000000001</v>
+        <v>67.2</v>
       </c>
       <c r="AP17" t="n">
         <v>67.91717479784909</v>
@@ -3170,10 +3198,10 @@
         <v>67.91717479784909</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>-461.0998474880344</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -3182,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>53.7856</v>
+        <v>48</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.162341861796144</v>
+        <v>6.453802508669606</v>
       </c>
       <c r="AX17" t="n">
-        <v>-385.0148145950727</v>
+        <v>-343.417585107081</v>
       </c>
       <c r="AY17" t="n">
         <v>67.91717479784909</v>
@@ -3256,13 +3284,13 @@
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.000192</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>52.2126</v>
@@ -3270,82 +3298,84 @@
       <c r="W18" t="n">
         <v>15.8598</v>
       </c>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
       <c r="Y18" t="n">
-        <v>52.2126</v>
+        <v>47</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.8598</v>
+        <v>18</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>52.2126</v>
+        <v>47</v>
       </c>
       <c r="AC18" t="n">
-        <v>15.8598</v>
+        <v>18</v>
       </c>
       <c r="AD18" t="n">
-        <v>94.27671000000001</v>
+        <v>90.45</v>
       </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="n">
-        <v>68.0724</v>
+        <v>65</v>
       </c>
       <c r="AG18" t="n">
-        <v>52.2126</v>
+        <v>47</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.8598</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>12.62217340652446</v>
+        <v>11.36204958394429</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.970168175584146</v>
+        <v>3.543990072780712</v>
       </c>
       <c r="AK18" t="n">
-        <v>-355.5647592383448</v>
+        <v>-320.0672574091734</v>
       </c>
       <c r="AL18" t="n">
-        <v>-70.85470690897077</v>
+        <v>-87.79312976833617</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>-128.8821926419465</v>
+        <v>-159.2011626164914</v>
       </c>
       <c r="AO18" t="n">
-        <v>94.27671000000001</v>
+        <v>90.45</v>
       </c>
       <c r="AP18" t="n">
         <v>67.73542188459191</v>
       </c>
       <c r="AQ18" t="n">
-        <v>141.1770096538784</v>
+        <v>122.7802441826342</v>
       </c>
       <c r="AR18" t="n">
-        <v>11.65336885515481</v>
+        <v>11.94870241008529</v>
       </c>
       <c r="AS18" t="n">
-        <v>-427.6043946954304</v>
+        <v>-434.9495165240373</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>-815.6792327000711</v>
+        <v>-907.9237612946282</v>
       </c>
       <c r="AV18" t="n">
-        <v>68.0724</v>
+        <v>65</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>15.74533126897031</v>
       </c>
       <c r="AX18" t="n">
-        <v>-455.6011811707486</v>
+        <v>-439.4538462604478</v>
       </c>
       <c r="AY18" t="n">
         <v>67.73542188459191</v>
@@ -3413,13 +3443,13 @@
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0.000192</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>32.25344</v>
@@ -3427,82 +3457,84 @@
       <c r="W19" t="n">
         <v>9.79712</v>
       </c>
-      <c r="X19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
       <c r="Y19" t="n">
-        <v>32.25344</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.79712</v>
+        <v>13.6</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>32.25344</v>
+        <v>25</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.79712</v>
+        <v>13.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>58.237824</v>
+        <v>54.15</v>
       </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>42.05056</v>
+        <v>38.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>32.25344</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.79712</v>
+        <v>13.6</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.140033978993536</v>
+        <v>6.30943085372719</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.966682610889046</v>
+        <v>2.862056104559982</v>
       </c>
       <c r="AK19" t="n">
-        <v>-301.2852638537889</v>
+        <v>-233.5295582841621</v>
       </c>
       <c r="AL19" t="n">
-        <v>-59.38489811716961</v>
+        <v>-90.07088825022967</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-81.54277394349982</v>
+        <v>-123.5051165225621</v>
       </c>
       <c r="AO19" t="n">
-        <v>58.237824</v>
+        <v>54.15</v>
       </c>
       <c r="AP19" t="n">
         <v>50.93788109838682</v>
       </c>
       <c r="AQ19" t="n">
-        <v>124.7316314941947</v>
+        <v>106.3190260432799</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.17079317062975</v>
+        <v>7.956763623504095</v>
       </c>
       <c r="AS19" t="n">
-        <v>-359.4332063816277</v>
+        <v>-365.603798058875</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>-502.295492860327</v>
+        <v>-509.6688350521572</v>
       </c>
       <c r="AV19" t="n">
-        <v>42.05056</v>
+        <v>38.6</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.437281857416739</v>
+        <v>6.880301775719361</v>
       </c>
       <c r="AX19" t="n">
-        <v>-401.4340942658305</v>
+        <v>-368.3363317442926</v>
       </c>
       <c r="AY19" t="n">
         <v>50.93788109838682</v>
@@ -3576,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>38.67599999999999</v>
@@ -3584,46 +3616,48 @@
       <c r="W20" t="n">
         <v>11.748</v>
       </c>
-      <c r="X20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
       <c r="Y20" t="n">
-        <v>38.67599999999999</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>11.748</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>38.67599999999999</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.748</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>69.83459999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="n">
-        <v>50.42399999999999</v>
+        <v>48</v>
       </c>
       <c r="AG20" t="n">
-        <v>38.67599999999999</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="n">
-        <v>11.748</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>9.853133665821348</v>
+        <v>8.661871564741066</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.992931386546415</v>
+        <v>3.566652997246321</v>
       </c>
       <c r="AK20" t="n">
-        <v>-302.2610385404615</v>
+        <v>-265.7171194119271</v>
       </c>
       <c r="AL20" t="n">
-        <v>-91.8130799662153</v>
+        <v>-109.4129315225582</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -3632,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>69.83459999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AP20" t="n">
         <v>59.60123113492035</v>
@@ -3653,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>50.42399999999999</v>
+        <v>48</v>
       </c>
       <c r="AW20" t="n">
-        <v>8.911682369063119</v>
+        <v>8.534226877708706</v>
       </c>
       <c r="AX20" t="n">
-        <v>-404.5555087386577</v>
+        <v>-384.9479512327889</v>
       </c>
       <c r="AY20" t="n">
         <v>59.60123113492035</v>
@@ -3733,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>21.75232</v>
@@ -3741,46 +3775,48 @@
       <c r="W21" t="n">
         <v>6.607359999999999</v>
       </c>
-      <c r="X21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
       <c r="Y21" t="n">
-        <v>21.75232</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.607359999999999</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>21.75232</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.607359999999999</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>39.276672</v>
+        <v>36.45</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>28.35968</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>21.75232</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.607359999999999</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.489790357925879</v>
+        <v>4.290412980534493</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.667547241827313</v>
+        <v>2.271395107341788</v>
       </c>
       <c r="AK21" t="n">
-        <v>-203.1923872502297</v>
+        <v>-158.8000996332302</v>
       </c>
       <c r="AL21" t="n">
-        <v>-61.72055448897764</v>
+        <v>-84.07064098229834</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -3789,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>39.276672</v>
+        <v>36.45</v>
       </c>
       <c r="AP21" t="n">
         <v>50.93788109838682</v>
@@ -3798,10 +3834,10 @@
         <v>50.93788109838682</v>
       </c>
       <c r="AR21" t="n">
-        <v>6.99034796117336</v>
+        <v>6.52803306117207</v>
       </c>
       <c r="AS21" t="n">
-        <v>-374.8245042601121</v>
+        <v>-347.7292084509633</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -3810,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>28.35968</v>
+        <v>26</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.167699705413698</v>
+        <v>4.760883743462012</v>
       </c>
       <c r="AX21" t="n">
-        <v>-270.2894491727887</v>
+        <v>-247.7325751087606</v>
       </c>
       <c r="AY21" t="n">
         <v>50.93788109838682</v>
@@ -3894,13 +3930,11 @@
       <c r="W22" t="n">
         <v>0</v>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -4043,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>34.50368</v>
@@ -4051,46 +4085,48 @@
       <c r="W23" t="n">
         <v>10.48064</v>
       </c>
-      <c r="X23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
       <c r="Y23" t="n">
-        <v>34.50368</v>
+        <v>27</v>
       </c>
       <c r="Z23" t="n">
-        <v>10.48064</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>34.50368</v>
+        <v>27</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.48064</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>62.30092800000001</v>
+        <v>53.7</v>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>44.98432</v>
+        <v>38.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>34.50368</v>
+        <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>10.48064</v>
+        <v>11.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>6.251050161346587</v>
+        <v>4.891604442087273</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.898783154811761</v>
+        <v>2.083461151259396</v>
       </c>
       <c r="AK23" t="n">
-        <v>-287.2263890367271</v>
+        <v>-224.7618950787752</v>
       </c>
       <c r="AL23" t="n">
-        <v>-87.24624103845976</v>
+        <v>-95.73191827429315</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -4099,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>62.30092800000001</v>
+        <v>53.7</v>
       </c>
       <c r="AP23" t="n">
         <v>57.15344973401032</v>
@@ -4108,10 +4144,10 @@
         <v>57.15344973401032</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>12.77822571249886</v>
       </c>
       <c r="AS23" t="n">
-        <v>0</v>
+        <v>-441.6717053441894</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
@@ -4120,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>44.98432</v>
+        <v>38.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.793955279016324</v>
+        <v>5.008982262072154</v>
       </c>
       <c r="AX23" t="n">
-        <v>-380.7853089170353</v>
+        <v>-325.7363310276438</v>
       </c>
       <c r="AY23" t="n">
         <v>57.15344973401032</v>
@@ -4200,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>22.561</v>
@@ -4208,46 +4244,48 @@
       <c r="W24" t="n">
         <v>6.853</v>
       </c>
-      <c r="X24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
       <c r="Y24" t="n">
-        <v>22.561</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.853</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>22.561</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.853</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>40.73685</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>29.414</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
-        <v>22.561</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.853</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>4.310745978796835</v>
+        <v>3.821413925621056</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.309407481614056</v>
+        <v>1.910706962810529</v>
       </c>
       <c r="AK24" t="n">
-        <v>-132.239204361452</v>
+        <v>-117.2281409170267</v>
       </c>
       <c r="AL24" t="n">
-        <v>-40.16822248521918</v>
+        <v>-58.61407045851334</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -4256,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>40.73685</v>
+        <v>42</v>
       </c>
       <c r="AP24" t="n">
         <v>79.46830817989363</v>
@@ -4265,10 +4303,10 @@
         <v>79.46830817989363</v>
       </c>
       <c r="AR24" t="n">
-        <v>5.650103667774881</v>
+        <v>5.813912714325056</v>
       </c>
       <c r="AS24" t="n">
-        <v>-244.3948459319656</v>
+        <v>-252.0018247014577</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
@@ -4277,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>29.414</v>
+        <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.149594508764197</v>
+        <v>4.22863961733221</v>
       </c>
       <c r="AX24" t="n">
-        <v>-176.2883626825924</v>
+        <v>-179.8095873587304</v>
       </c>
       <c r="AY24" t="n">
         <v>79.46830817989363</v>
@@ -4357,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0.75008</v>
@@ -4365,46 +4403,48 @@
       <c r="W25" t="n">
         <v>0.22784</v>
       </c>
-      <c r="X25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
       <c r="Y25" t="n">
-        <v>0.75008</v>
+        <v>3</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.22784</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.75008</v>
+        <v>3</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.22784</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.354368</v>
+        <v>19.05</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="n">
-        <v>0.9779199999999999</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.75008</v>
+        <v>3</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.22784</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.1253260571502344</v>
+        <v>0.5012527029941541</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.03798830095618026</v>
+        <v>1.670846570820955</v>
       </c>
       <c r="AK25" t="n">
-        <v>-3.955876252373078</v>
+        <v>-15.82181117916546</v>
       </c>
       <c r="AL25" t="n">
-        <v>-1.199042963733994</v>
+        <v>-52.73934409644614</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -4413,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.354368</v>
+        <v>19.05</v>
       </c>
       <c r="AP25" t="n">
         <v>88.6373074789162</v>
@@ -4422,10 +4462,10 @@
         <v>88.6373074789162</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.1731584510359374</v>
+        <v>2.384582969929496</v>
       </c>
       <c r="AS25" t="n">
-        <v>-7.285542822595847</v>
+        <v>-102.616243427583</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -4434,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.9779199999999999</v>
+        <v>13</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.1250827946004618</v>
+        <v>1.639343795048879</v>
       </c>
       <c r="AX25" t="n">
-        <v>-5.26037599802029</v>
+        <v>-69.99344451851587</v>
       </c>
       <c r="AY25" t="n">
         <v>88.6373074789162</v>
@@ -4514,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>32.8746</v>
@@ -4522,46 +4562,48 @@
       <c r="W26" t="n">
         <v>9.985799999999999</v>
       </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
       <c r="Y26" t="n">
-        <v>32.8746</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.985799999999999</v>
+        <v>14</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>32.8746</v>
+        <v>30</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.985799999999999</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>59.35941000000001</v>
+        <v>61.5</v>
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="n">
-        <v>42.8604</v>
+        <v>44</v>
       </c>
       <c r="AG26" t="n">
-        <v>32.8746</v>
+        <v>30</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.985799999999999</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>6.281372711961105</v>
+        <v>5.732120888431584</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.907993758923338</v>
+        <v>2.674989747934741</v>
       </c>
       <c r="AK26" t="n">
-        <v>-192.6914120695443</v>
+        <v>-175.84221137554</v>
       </c>
       <c r="AL26" t="n">
-        <v>-58.53083847846224</v>
+        <v>-82.05969864191866</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -4570,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>59.35941000000001</v>
+        <v>61.5</v>
       </c>
       <c r="AP26" t="n">
         <v>79.46830817989363</v>
@@ -4579,10 +4621,10 @@
         <v>79.46830817989363</v>
       </c>
       <c r="AR26" t="n">
-        <v>7.982228976607531</v>
+        <v>8.238304507986481</v>
       </c>
       <c r="AS26" t="n">
-        <v>-356.827111669997</v>
+        <v>-369.7939148238998</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -4591,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>42.8604</v>
+        <v>44</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.925069732538011</v>
+        <v>6.071767274952687</v>
       </c>
       <c r="AX26" t="n">
-        <v>-257.1844374644836</v>
+        <v>-264.0501749707262</v>
       </c>
       <c r="AY26" t="n">
         <v>79.46830817989363</v>
@@ -4665,13 +4707,13 @@
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>0.000192</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>42.00448</v>
@@ -4679,82 +4721,84 @@
       <c r="W27" t="n">
         <v>12.75904</v>
       </c>
-      <c r="X27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
       <c r="Y27" t="n">
-        <v>42.00448</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="n">
-        <v>12.75904</v>
+        <v>16</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>42.00448</v>
+        <v>32</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.75904</v>
+        <v>16</v>
       </c>
       <c r="AD27" t="n">
-        <v>75.84460800000001</v>
+        <v>67.2</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="n">
-        <v>54.76352</v>
+        <v>48</v>
       </c>
       <c r="AG27" t="n">
-        <v>42.00448</v>
+        <v>32</v>
       </c>
       <c r="AH27" t="n">
-        <v>12.75904</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.950730863202996</v>
+        <v>6.057053619578102</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2.017093015610218</v>
+        <v>2.624333256436032</v>
       </c>
       <c r="AK27" t="n">
-        <v>-294.2786298106776</v>
+        <v>-224.1883759527957</v>
       </c>
       <c r="AL27" t="n">
-        <v>-63.56560258222203</v>
+        <v>-85.71887547968245</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-87.1571628446202</v>
+        <v>-117.3950764686987</v>
       </c>
       <c r="AO27" t="n">
-        <v>75.84460800000001</v>
+        <v>67.2</v>
       </c>
       <c r="AP27" t="n">
         <v>67.91717479784909</v>
       </c>
       <c r="AQ27" t="n">
-        <v>140.9572433012608</v>
+        <v>122.3050291610995</v>
       </c>
       <c r="AR27" t="n">
-        <v>8.325161664314409</v>
+        <v>7.720799478083487</v>
       </c>
       <c r="AS27" t="n">
-        <v>-385.3304160440057</v>
+        <v>-367.1311080097256</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>-537.214014715183</v>
+        <v>-510.8155876229198</v>
       </c>
       <c r="AV27" t="n">
-        <v>54.76352</v>
+        <v>48</v>
       </c>
       <c r="AW27" t="n">
-        <v>7.280489255388605</v>
+        <v>6.453802508669606</v>
       </c>
       <c r="AX27" t="n">
-        <v>-392.0506972511162</v>
+        <v>-343.417585107081</v>
       </c>
       <c r="AY27" t="n">
         <v>67.91717479784909</v>
@@ -4828,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>50.9234</v>
@@ -4836,46 +4880,48 @@
       <c r="W28" t="n">
         <v>15.4682</v>
       </c>
-      <c r="X28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
       <c r="Y28" t="n">
-        <v>50.9234</v>
+        <v>46</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.4682</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>50.9234</v>
+        <v>46</v>
       </c>
       <c r="AC28" t="n">
-        <v>15.4682</v>
+        <v>18</v>
       </c>
       <c r="AD28" t="n">
-        <v>91.94889000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="n">
-        <v>66.3916</v>
+        <v>64</v>
       </c>
       <c r="AG28" t="n">
-        <v>50.9234</v>
+        <v>46</v>
       </c>
       <c r="AH28" t="n">
-        <v>15.4682</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.71399780695524</v>
+        <v>8.774824523106094</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2.95066827583282</v>
+        <v>3.433626987302389</v>
       </c>
       <c r="AK28" t="n">
-        <v>-297.3294673433866</v>
+        <v>-268.5829205786687</v>
       </c>
       <c r="AL28" t="n">
-        <v>-90.31509417597751</v>
+        <v>-105.0976645742617</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -4884,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>91.94889000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="AP28" t="n">
         <v>79.75790420253382</v>
@@ -4905,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>66.3916</v>
+        <v>64</v>
       </c>
       <c r="AW28" t="n">
-        <v>8.801453944751287</v>
+        <v>8.521872689263722</v>
       </c>
       <c r="AX28" t="n">
-        <v>-397.9375945147268</v>
+        <v>-383.4858493310111</v>
       </c>
       <c r="AY28" t="n">
         <v>79.75790420253382</v>
@@ -4979,13 +5025,13 @@
         <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>0.000192</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>36.00384</v>
@@ -4993,82 +5039,84 @@
       <c r="W29" t="n">
         <v>10.93632</v>
       </c>
-      <c r="X29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
       <c r="Y29" t="n">
-        <v>36.00384</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>10.93632</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>36.00384</v>
+        <v>28</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.93632</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>65.009664</v>
+        <v>60.3</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="n">
-        <v>46.94015999999999</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="n">
-        <v>36.00384</v>
+        <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>10.93632</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>6.814912168459711</v>
+        <v>5.299921917130838</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.728932681472479</v>
+        <v>2.46031242790878</v>
       </c>
       <c r="AK29" t="n">
-        <v>-252.2388255520094</v>
+        <v>-196.1648289586961</v>
       </c>
       <c r="AL29" t="n">
-        <v>-54.48482841056465</v>
+        <v>-80.36144576220225</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>-74.70616830320746</v>
+        <v>-110.057884189405</v>
       </c>
       <c r="AO29" t="n">
-        <v>65.009664</v>
+        <v>60.3</v>
       </c>
       <c r="AP29" t="n">
         <v>67.91717479784909</v>
       </c>
       <c r="AQ29" t="n">
-        <v>140.9572433012608</v>
+        <v>122.3050291610995</v>
       </c>
       <c r="AR29" t="n">
-        <v>7.247810236326771</v>
+        <v>6.999213652774299</v>
       </c>
       <c r="AS29" t="n">
-        <v>-330.0272767162828</v>
+        <v>-329.2540684647167</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>-459.9036519403264</v>
+        <v>-457.9890813844285</v>
       </c>
       <c r="AV29" t="n">
-        <v>46.94015999999999</v>
+        <v>43</v>
       </c>
       <c r="AW29" t="n">
-        <v>6.322262315007464</v>
+        <v>5.82858636994185</v>
       </c>
       <c r="AX29" t="n">
-        <v>-335.8027859065672</v>
+        <v>-307.5071535369001</v>
       </c>
       <c r="AY29" t="n">
         <v>67.91717479784909</v>
@@ -5142,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>38.0314</v>
@@ -5150,46 +5198,48 @@
       <c r="W30" t="n">
         <v>11.5522</v>
       </c>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
       <c r="Y30" t="n">
-        <v>38.0314</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.5522</v>
+        <v>14</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>38.0314</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.5522</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="n">
-        <v>68.67069000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="n">
-        <v>49.5836</v>
+        <v>48</v>
       </c>
       <c r="AG30" t="n">
-        <v>38.0314</v>
+        <v>34</v>
       </c>
       <c r="AH30" t="n">
-        <v>11.5522</v>
+        <v>14</v>
       </c>
       <c r="AI30" t="n">
-        <v>7.25475785582733</v>
+        <v>6.485739864904509</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2.203663649039704</v>
+        <v>2.670598767901855</v>
       </c>
       <c r="AK30" t="n">
-        <v>-222.0561844716431</v>
+        <v>-198.5178108624943</v>
       </c>
       <c r="AL30" t="n">
-        <v>-67.45051337193254</v>
+        <v>-81.74262800220357</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -5198,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>68.67069000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AP30" t="n">
         <v>79.75790420253382</v>
@@ -5207,10 +5257,10 @@
         <v>79.75790420253382</v>
       </c>
       <c r="AR30" t="n">
-        <v>9.064918093145364</v>
+        <v>8.860477575915496</v>
       </c>
       <c r="AS30" t="n">
-        <v>-411.7189902625766</v>
+        <v>-401.0110201345354</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -5219,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>49.5836</v>
+        <v>48</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.771737235738357</v>
+        <v>6.572883249098376</v>
       </c>
       <c r="AX30" t="n">
-        <v>-296.5781440577221</v>
+        <v>-287.0532598008257</v>
       </c>
       <c r="AY30" t="n">
         <v>79.75790420253382</v>
@@ -5299,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>21.00224</v>
@@ -5307,46 +5357,48 @@
       <c r="W31" t="n">
         <v>6.37952</v>
       </c>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
       <c r="Y31" t="n">
-        <v>21.00224</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
-        <v>6.37952</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>21.00224</v>
+        <v>16</v>
       </c>
       <c r="AC31" t="n">
-        <v>6.37952</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>37.922304</v>
+        <v>36.6</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>27.38176</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>21.00224</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.37952</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>3.975365431601502</v>
+        <v>3.028526809789054</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.207534209599091</v>
+        <v>1.892829256118159</v>
       </c>
       <c r="AK31" t="n">
-        <v>-147.1393149053389</v>
+        <v>-112.0941879763978</v>
       </c>
       <c r="AL31" t="n">
-        <v>-44.69419462994935</v>
+        <v>-70.05886748524864</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -5355,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>37.922304</v>
+        <v>36.6</v>
       </c>
       <c r="AP31" t="n">
         <v>67.91717479784909</v>
@@ -5364,10 +5416,10 @@
         <v>67.91717479784909</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.181764834323383</v>
+        <v>5.011394970247783</v>
       </c>
       <c r="AS31" t="n">
-        <v>-271.0740064855291</v>
+        <v>-261.5919987482518</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -5376,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>27.38176</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.802109063516929</v>
+        <v>3.617653048696738</v>
       </c>
       <c r="AX31" t="n">
-        <v>-195.5530311543676</v>
+        <v>-185.6635105460606</v>
       </c>
       <c r="AY31" t="n">
         <v>67.91717479784909</v>
@@ -5460,13 +5512,11 @@
       <c r="W32" t="n">
         <v>0</v>
       </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -5609,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>3.7504</v>
@@ -5617,46 +5667,48 @@
       <c r="W33" t="n">
         <v>1.1392</v>
       </c>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
       <c r="Y33" t="n">
-        <v>3.7504</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.1392</v>
+        <v>10</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>3.7504</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.1392</v>
+        <v>10</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.77184</v>
+        <v>15</v>
       </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>4.8896</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
-        <v>3.7504</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.1392</v>
+        <v>10</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.6711130333635174</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.2038429072362375</v>
+        <v>1.78943801103775</v>
       </c>
       <c r="AK33" t="n">
-        <v>-44.23983020289958</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>-13.43810682913819</v>
+        <v>-117.9603369142353</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -5665,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>6.77184</v>
+        <v>15</v>
       </c>
       <c r="AP33" t="n">
         <v>40.18170434782591</v>
@@ -5674,10 +5726,10 @@
         <v>40.18170434782591</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.8944187378928382</v>
+        <v>1.959178913704549</v>
       </c>
       <c r="AS33" t="n">
-        <v>-80.75652729017854</v>
+        <v>-178.9475959687046</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -5686,13 +5738,13 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>4.8896</v>
+        <v>10</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.6474364929499599</v>
+        <v>1.315067845250182</v>
       </c>
       <c r="AX33" t="n">
-        <v>-58.30521499819323</v>
+        <v>-119.270949302532</v>
       </c>
       <c r="AY33" t="n">
         <v>40.18170434782591</v>
@@ -5760,13 +5812,13 @@
         <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>0.000192</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0.6446000000000001</v>
@@ -5774,82 +5826,84 @@
       <c r="W34" t="n">
         <v>0.1958</v>
       </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
       <c r="Y34" t="n">
-        <v>0.6446000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.1958</v>
+        <v>8</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.6446000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1958</v>
+        <v>8</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.16391</v>
+        <v>26.85</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>0.8404</v>
+        <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.6446000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.1958</v>
+        <v>8</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.1135982586821997</v>
+        <v>1.938499931586389</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.02521778109869413</v>
+        <v>1.095155255496457</v>
       </c>
       <c r="AK34" t="n">
-        <v>-7.205887750123363</v>
+        <v>-122.9676694136419</v>
       </c>
       <c r="AL34" t="n">
-        <v>-1.272385862089383</v>
+        <v>-57.97368484766903</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>-1.881144562804054</v>
+        <v>-85.59555317809091</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.16391</v>
+        <v>26.85</v>
       </c>
       <c r="AP34" t="n">
         <v>42.4263166007908</v>
       </c>
       <c r="AQ34" t="n">
-        <v>120.1529176970677</v>
+        <v>100.6965334720022</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.1129361551563457</v>
+        <v>2.68568388485639</v>
       </c>
       <c r="AS34" t="n">
-        <v>-7.629470137647868</v>
+        <v>-196.1601685165517</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>-11.41305027303993</v>
+        <v>-293.0155913558057</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.8404</v>
+        <v>19</v>
       </c>
       <c r="AW34" t="n">
-        <v>0.1108718001452458</v>
+        <v>2.45142187612958</v>
       </c>
       <c r="AX34" t="n">
-        <v>-9.493156244252445</v>
+        <v>-214.7469265060082</v>
       </c>
       <c r="AY34" t="n">
         <v>42.4263166007908</v>
@@ -5923,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>37.504</v>
@@ -5931,46 +5985,48 @@
       <c r="W35" t="n">
         <v>11.392</v>
       </c>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
       <c r="Y35" t="n">
-        <v>37.504</v>
+        <v>28</v>
       </c>
       <c r="Z35" t="n">
-        <v>11.392</v>
+        <v>22</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>37.504</v>
+        <v>28</v>
       </c>
       <c r="AC35" t="n">
-        <v>11.392</v>
+        <v>22</v>
       </c>
       <c r="AD35" t="n">
-        <v>67.7184</v>
+        <v>70.80000000000001</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="n">
-        <v>48.896</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="n">
-        <v>37.504</v>
+        <v>28</v>
       </c>
       <c r="AH35" t="n">
-        <v>11.392</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>3.549433421072765</v>
+        <v>2.649960958565419</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.078155544284901</v>
+        <v>2.082112181729975</v>
       </c>
       <c r="AK35" t="n">
-        <v>-131.3743883083383</v>
+        <v>-98.0824144793481</v>
       </c>
       <c r="AL35" t="n">
-        <v>-39.90553091959762</v>
+        <v>-77.06475423377348</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -5979,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>67.7184</v>
+        <v>70.80000000000001</v>
       </c>
       <c r="AP35" t="n">
         <v>135.8343495956982</v>
@@ -5988,10 +6044,10 @@
         <v>135.8343495956982</v>
       </c>
       <c r="AR35" t="n">
-        <v>4.655762431606398</v>
+        <v>4.856102169647298</v>
       </c>
       <c r="AS35" t="n">
-        <v>-241.94556830547</v>
+        <v>-252.989018239378</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -6000,13 +6056,13 @@
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>48.896</v>
+        <v>50</v>
       </c>
       <c r="AW35" t="n">
-        <v>3.40949783572874</v>
+        <v>3.483649981769414</v>
       </c>
       <c r="AX35" t="n">
-        <v>-174.5583825576736</v>
+        <v>-178.5078027075131</v>
       </c>
       <c r="AY35" t="n">
         <v>135.8343495956982</v>
@@ -6074,13 +6130,13 @@
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0.000192</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>36.0976</v>
@@ -6088,76 +6144,78 @@
       <c r="W36" t="n">
         <v>10.9648</v>
       </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
       <c r="Y36" t="n">
-        <v>36.0976</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
-        <v>10.9648</v>
+        <v>15</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>36.0976</v>
+        <v>32</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.9648</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>65.17896</v>
+        <v>65.7</v>
       </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>47.0624</v>
+        <v>47</v>
       </c>
       <c r="AG36" t="n">
-        <v>36.0976</v>
+        <v>32</v>
       </c>
       <c r="AH36" t="n">
-        <v>10.9648</v>
+        <v>15</v>
       </c>
       <c r="AI36" t="n">
-        <v>6.361381375493879</v>
+        <v>5.639272528251299</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.414300713353396</v>
+        <v>2.053416104055857</v>
       </c>
       <c r="AK36" t="n">
-        <v>-403.530703947807</v>
+        <v>-357.7241292033217</v>
       </c>
       <c r="AL36" t="n">
-        <v>-71.41422463368464</v>
+        <v>-108.7006590893794</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>-105.5792539958659</v>
+        <v>-160.4916622089205</v>
       </c>
       <c r="AO36" t="n">
-        <v>65.17896</v>
+        <v>65.7</v>
       </c>
       <c r="AP36" t="n">
         <v>42.4263166007908</v>
       </c>
       <c r="AQ36" t="n">
-        <v>120.1529176970677</v>
+        <v>100.6965334720022</v>
       </c>
       <c r="AR36" t="n">
-        <v>5.927645423836125</v>
+        <v>6.636290778229121</v>
       </c>
       <c r="AS36" t="n">
-        <v>-428.0149566067431</v>
+        <v>-435.2344750632524</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>-641.2017526601976</v>
+        <v>-832.9981487850966</v>
       </c>
       <c r="AV36" t="n">
-        <v>47.0624</v>
+        <v>47</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -6245,46 +6303,48 @@
       <c r="W37" t="n">
         <v>23.46752</v>
       </c>
-      <c r="X37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
       <c r="Y37" t="n">
-        <v>77.25824</v>
+        <v>59</v>
       </c>
       <c r="Z37" t="n">
-        <v>23.46752</v>
+        <v>32.5</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>77.25824</v>
+        <v>59</v>
       </c>
       <c r="AC37" t="n">
-        <v>23.46752</v>
+        <v>32.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>139.499904</v>
+        <v>128.4</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>100.72576</v>
+        <v>91.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>77.25824</v>
+        <v>59</v>
       </c>
       <c r="AH37" t="n">
-        <v>23.46752</v>
+        <v>32.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>6.465834794233911</v>
+        <v>4.937780783768831</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.964023753031259</v>
+        <v>2.719963991059104</v>
       </c>
       <c r="AK37" t="n">
-        <v>-204.4955907941505</v>
+        <v>-156.1676768310394</v>
       </c>
       <c r="AL37" t="n">
-        <v>-62.11641536599806</v>
+        <v>-86.02456774591155</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -6293,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>139.499904</v>
+        <v>128.4</v>
       </c>
       <c r="AP37" t="n">
         <v>176.642758331491</v>
@@ -6302,10 +6362,10 @@
         <v>176.642758331491</v>
       </c>
       <c r="AR37" t="n">
-        <v>8.153655844333136</v>
+        <v>7.568645100130956</v>
       </c>
       <c r="AS37" t="n">
-        <v>-378.8026862890209</v>
+        <v>-348.4783357192867</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
@@ -6314,13 +6374,13 @@
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>100.72576</v>
+        <v>91.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.058231843160095</v>
+        <v>5.538907498253528</v>
       </c>
       <c r="AX37" t="n">
-        <v>-273.0252665739455</v>
+        <v>-247.9172418673213</v>
       </c>
       <c r="AY37" t="n">
         <v>176.642758331491</v>
@@ -6402,46 +6462,48 @@
       <c r="W38" t="n">
         <v>15.2724</v>
       </c>
-      <c r="X38" t="inlineStr"/>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
       <c r="Y38" t="n">
-        <v>50.2788</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="n">
-        <v>15.2724</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>50.2788</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="n">
-        <v>15.2724</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="n">
-        <v>90.78498000000002</v>
+        <v>86.25</v>
       </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="n">
-        <v>65.55120000000001</v>
+        <v>62</v>
       </c>
       <c r="AG38" t="n">
-        <v>50.2788</v>
+        <v>45</v>
       </c>
       <c r="AH38" t="n">
-        <v>15.2724</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.860495487295054</v>
+        <v>7.930226992853399</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2.691413305014538</v>
+        <v>2.995863530633506</v>
       </c>
       <c r="AK38" t="n">
-        <v>-562.0606233558742</v>
+        <v>-503.0495566921711</v>
       </c>
       <c r="AL38" t="n">
-        <v>-170.7283122139004</v>
+        <v>-190.0409436392646</v>
       </c>
       <c r="AM38" t="n">
         <v>0</v>
@@ -6450,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>90.78498000000002</v>
+        <v>86.25</v>
       </c>
       <c r="AP38" t="n">
         <v>42.4263166007908</v>
@@ -6471,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>65.55120000000001</v>
+        <v>62</v>
       </c>
       <c r="AW38" t="n">
         <v>0</v>
@@ -6559,46 +6621,48 @@
       <c r="W39" t="n">
         <v>21.6448</v>
       </c>
-      <c r="X39" t="inlineStr"/>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
       <c r="Y39" t="n">
-        <v>71.2576</v>
+        <v>55</v>
       </c>
       <c r="Z39" t="n">
-        <v>21.6448</v>
+        <v>32</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>71.2576</v>
+        <v>55</v>
       </c>
       <c r="AC39" t="n">
-        <v>21.6448</v>
+        <v>32</v>
       </c>
       <c r="AD39" t="n">
-        <v>128.66496</v>
+        <v>122.25</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>92.9024</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="n">
-        <v>71.2576</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="n">
-        <v>21.6448</v>
+        <v>32</v>
       </c>
       <c r="AI39" t="n">
-        <v>5.963634033516714</v>
+        <v>4.60301598486925</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.811478042824134</v>
+        <v>2.678118391196656</v>
       </c>
       <c r="AK39" t="n">
-        <v>-188.6124381111096</v>
+        <v>-145.5800377238502</v>
       </c>
       <c r="AL39" t="n">
-        <v>-57.29184052301968</v>
+        <v>-84.70111285751288</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
@@ -6607,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>128.66496</v>
+        <v>122.25</v>
       </c>
       <c r="AP39" t="n">
         <v>176.642758331491</v>
@@ -6616,10 +6680,10 @@
         <v>176.642758331491</v>
       </c>
       <c r="AR39" t="n">
-        <v>7.582751758209395</v>
+        <v>7.23929082660065</v>
       </c>
       <c r="AS39" t="n">
-        <v>-349.2017751878258</v>
+        <v>-331.6921746868395</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
@@ -6628,13 +6692,13 @@
         <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>92.9024</v>
+        <v>87</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.61834408014866</v>
+        <v>5.282828284382951</v>
       </c>
       <c r="AX39" t="n">
-        <v>-251.7324678702243</v>
+        <v>-235.6784035902281</v>
       </c>
       <c r="AY39" t="n">
         <v>176.642758331491</v>
@@ -6716,46 +6780,48 @@
       <c r="W40" t="n">
         <v>12.3354</v>
       </c>
-      <c r="X40" t="inlineStr"/>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
       <c r="Y40" t="n">
-        <v>40.60980000000001</v>
+        <v>36</v>
       </c>
       <c r="Z40" t="n">
-        <v>12.3354</v>
+        <v>14</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>40.60980000000001</v>
+        <v>36</v>
       </c>
       <c r="AC40" t="n">
-        <v>12.3354</v>
+        <v>14</v>
       </c>
       <c r="AD40" t="n">
-        <v>73.32633000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>52.94520000000001</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="n">
-        <v>40.60980000000001</v>
+        <v>36</v>
       </c>
       <c r="AH40" t="n">
-        <v>12.3354</v>
+        <v>14</v>
       </c>
       <c r="AI40" t="n">
-        <v>7.15655404743063</v>
+        <v>6.344181594282727</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2.173833823280976</v>
+        <v>2.467181731109942</v>
       </c>
       <c r="AK40" t="n">
-        <v>-453.9720419412831</v>
+        <v>-402.439645353737</v>
       </c>
       <c r="AL40" t="n">
-        <v>-137.895944480458</v>
+        <v>-156.5043065264533</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
@@ -6764,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>73.32633000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AP40" t="n">
         <v>42.4263166007908</v>
@@ -6785,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>52.94520000000001</v>
+        <v>50</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
@@ -6873,46 +6939,48 @@
       <c r="W41" t="n">
         <v>18.68288</v>
       </c>
-      <c r="X41" t="inlineStr"/>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
       <c r="Y41" t="n">
-        <v>61.50656</v>
+        <v>47</v>
       </c>
       <c r="Z41" t="n">
-        <v>18.68288</v>
+        <v>23</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>61.50656</v>
+        <v>47</v>
       </c>
       <c r="AC41" t="n">
-        <v>18.68288</v>
+        <v>23</v>
       </c>
       <c r="AD41" t="n">
-        <v>111.058176</v>
+        <v>97.95</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>80.18944</v>
+        <v>70</v>
       </c>
       <c r="AG41" t="n">
-        <v>61.50656</v>
+        <v>47</v>
       </c>
       <c r="AH41" t="n">
-        <v>18.68288</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>5.147557797351268</v>
+        <v>3.933486387070084</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.563591335344019</v>
+        <v>1.924897593672596</v>
       </c>
       <c r="AK41" t="n">
-        <v>-162.8023150011683</v>
+        <v>-124.4047595094721</v>
       </c>
       <c r="AL41" t="n">
-        <v>-49.45190595245182</v>
+        <v>-60.87892486633737</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
@@ -6921,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>111.058176</v>
+        <v>97.95</v>
       </c>
       <c r="AP41" t="n">
         <v>176.642758331491</v>
@@ -6930,10 +6998,10 @@
         <v>176.642758331491</v>
       </c>
       <c r="AR41" t="n">
-        <v>6.630607760262828</v>
+        <v>5.902792642258675</v>
       </c>
       <c r="AS41" t="n">
-        <v>-301.1717617645165</v>
+        <v>-265.4686654338501</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
@@ -6942,13 +7010,13 @@
         <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>80.18944</v>
+        <v>70</v>
       </c>
       <c r="AW41" t="n">
-        <v>4.891862154283093</v>
+        <v>4.299404609535822</v>
       </c>
       <c r="AX41" t="n">
-        <v>-217.1651857970695</v>
+        <v>-189.4886072038956</v>
       </c>
       <c r="AY41" t="n">
         <v>176.642758331491</v>
